--- a/data/datacall_template/00template/Eel_Data_Call_Annex10_Biomass_Indicators.xlsx
+++ b/data/datacall_template/00template/Eel_Data_Call_Annex10_Biomass_Indicators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://community.ices.dk/ExpertGroups/wkeeldata/2024 Meeting Documents/04. Working documents/SG 3/Final data templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\wg_WGEEL\data\datacall_template\00template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A93FDD-3616-4DB6-ADD7-92517F179B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D132BB5-44BA-4DFF-9801-594C3A3E4341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -2599,7 +2599,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -3786,23 +3786,23 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="45.85546875" customWidth="1"/>
+    <col min="1" max="1" width="45.86328125" customWidth="1"/>
     <col min="2" max="2" width="133" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="243" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="243" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="51" t="s">
         <v>627</v>
       </c>
       <c r="B1" s="52"/>
     </row>
-    <row r="2" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="27" t="s">
         <v>544</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="27" t="s">
         <v>7</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="27" t="s">
         <v>9</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="26" t="s">
         <v>11</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="28" t="s">
         <v>12</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="28" t="s">
         <v>14</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="28" t="s">
         <v>16</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="28" t="s">
         <v>18</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="27" t="s">
         <v>20</v>
       </c>
@@ -3926,14 +3926,14 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.3984375" customWidth="1"/>
+    <col min="2" max="2" width="32.265625" customWidth="1"/>
+    <col min="3" max="3" width="41.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="32" t="s">
         <v>595</v>
       </c>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="D1" s="33"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="34" t="s">
         <v>44</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A3" s="37" t="s">
         <v>600</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="37" t="s">
         <v>603</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="37" t="s">
         <v>606</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="37" t="s">
         <v>609</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A7" s="35" t="s">
         <v>612</v>
       </c>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="D7" s="36"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="34" t="s">
         <v>615</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="34" t="s">
         <v>618</v>
       </c>
@@ -4071,12 +4071,12 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="45.42578125" customWidth="1"/>
+    <col min="2" max="2" width="45.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>342</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>347</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="26" t="s">
         <v>44</v>
       </c>
@@ -4144,12 +4144,12 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="9" max="9" width="11.42578125" style="15"/>
+    <col min="9" max="9" width="11.3984375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>350</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>227</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>230</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>228</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>229</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>231</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>195</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>196</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>198</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>197</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>199</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>235</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>234</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>239</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>200</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>218</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>201</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>240</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>238</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>233</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>243</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>219</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>232</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>241</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>242</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>220</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>236</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>221</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>237</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>222</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>223</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>224</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>225</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>226</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>267</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>275</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>171</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>215</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>262</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>116</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>253</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>268</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>264</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>265</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>266</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>277</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>258</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>257</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>274</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>259</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>255</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>263</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>261</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>271</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>260</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>273</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>272</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>256</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>270</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>269</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>251</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>252</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>250</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>249</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>254</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>248</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>214</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>213</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>217</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>216</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>212</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>172</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>123</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>122</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>126</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>134</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>132</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>142</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>144</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>145</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>178</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>158</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>131</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>177</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>114</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>115</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>117</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>118</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>119</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>121</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>120</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>112</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>113</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>148</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>150</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>151</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>157</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>156</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>163</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>175</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>169</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>176</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>189</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>170</v>
       </c>
@@ -7183,7 +7183,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>202</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>203</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>208</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>209</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>210</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>211</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>207</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>206</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>193</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>194</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>247</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>245</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>204</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>246</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>205</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>244</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>152</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>159</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>191</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>190</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>192</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>174</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>168</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>173</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>133</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>130</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>143</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>146</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>149</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>147</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>155</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>154</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>160</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>164</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>162</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>153</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>167</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>166</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>165</v>
       </c>
@@ -8336,9 +8336,9 @@
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="49" t="s">
         <v>516</v>
       </c>
@@ -8352,7 +8352,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="24">
         <v>1</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="25">
         <v>2</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="25">
         <v>4</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="26">
         <v>0</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="26">
         <v>3</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="26">
         <v>18</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="26">
         <v>19</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="26">
         <v>20</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="26">
         <v>21</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="26">
         <v>-21</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="26">
         <v>22</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="26">
         <v>23</v>
       </c>
@@ -8534,15 +8534,15 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="16"/>
-    <col min="2" max="2" width="15.140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" style="16" customWidth="1"/>
-    <col min="4" max="1024" width="11.5703125" style="16"/>
+    <col min="1" max="1" width="11.59765625" style="16"/>
+    <col min="2" max="2" width="15.1328125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="46.1328125" style="16" customWidth="1"/>
+    <col min="4" max="1024" width="11.59765625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>534</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="39.75" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
         <v>537</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="39.75" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
         <v>48</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="39.75" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>49</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C5" s="18"/>
     </row>
   </sheetData>
@@ -8609,21 +8609,21 @@
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.86328125" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" customWidth="1"/>
+    <col min="5" max="5" width="14.86328125" customWidth="1"/>
+    <col min="6" max="6" width="15.1328125" customWidth="1"/>
+    <col min="7" max="7" width="18.86328125" customWidth="1"/>
+    <col min="8" max="8" width="21.59765625" customWidth="1"/>
     <col min="9" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" customWidth="1"/>
+    <col min="14" max="14" width="19.59765625" customWidth="1"/>
+    <col min="15" max="15" width="16.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
@@ -8700,9 +8700,9 @@
       <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="6"/>
@@ -8775,7 +8775,7 @@
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -8789,7 +8789,7 @@
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -8804,7 +8804,7 @@
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -8819,7 +8819,7 @@
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -8834,7 +8834,7 @@
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -8849,7 +8849,7 @@
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -8864,7 +8864,7 @@
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -8878,7 +8878,7 @@
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -8892,7 +8892,7 @@
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -8906,7 +8906,7 @@
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -8920,7 +8920,7 @@
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
@@ -8935,7 +8935,7 @@
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="6"/>
@@ -8950,7 +8950,7 @@
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="6"/>
@@ -8965,7 +8965,7 @@
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="6"/>
@@ -8980,7 +8980,7 @@
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="6"/>
@@ -8994,7 +8994,7 @@
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="6"/>
@@ -9008,7 +9008,7 @@
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="6"/>
@@ -9022,7 +9022,7 @@
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="6"/>
@@ -9037,7 +9037,7 @@
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="6"/>
@@ -9051,7 +9051,7 @@
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="6"/>
@@ -9066,7 +9066,7 @@
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="6"/>
@@ -9080,7 +9080,7 @@
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="6"/>
@@ -9094,7 +9094,7 @@
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="6"/>
@@ -9109,7 +9109,7 @@
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="6"/>
@@ -9124,7 +9124,7 @@
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="6"/>
@@ -9138,7 +9138,7 @@
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="6"/>
@@ -9152,7 +9152,7 @@
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="6"/>
@@ -9166,7 +9166,7 @@
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="6"/>
@@ -9181,7 +9181,7 @@
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="6"/>
@@ -9195,7 +9195,7 @@
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="6"/>
@@ -9210,7 +9210,7 @@
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="6"/>
@@ -9225,7 +9225,7 @@
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="6"/>
@@ -9240,7 +9240,7 @@
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="6"/>
@@ -9255,7 +9255,7 @@
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="6"/>
@@ -9270,7 +9270,7 @@
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="6"/>
@@ -9284,7 +9284,7 @@
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="6"/>
@@ -9298,7 +9298,7 @@
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="6"/>
@@ -9312,7 +9312,7 @@
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="6"/>
@@ -9327,7 +9327,7 @@
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="6"/>
@@ -9342,7 +9342,7 @@
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="6"/>
@@ -9357,7 +9357,7 @@
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="6"/>
@@ -9372,7 +9372,7 @@
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="6"/>
@@ -9386,7 +9386,7 @@
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="6"/>
@@ -9400,7 +9400,7 @@
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="6"/>
@@ -9415,7 +9415,7 @@
       <c r="R46" s="7"/>
       <c r="S46" s="7"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="6"/>
@@ -9430,7 +9430,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="6"/>
@@ -9445,7 +9445,7 @@
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="6"/>
@@ -9460,7 +9460,7 @@
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="6"/>
@@ -9475,7 +9475,7 @@
       <c r="R50" s="7"/>
       <c r="S50" s="7"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="6"/>
@@ -9490,7 +9490,7 @@
       <c r="R51" s="7"/>
       <c r="S51" s="7"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="6"/>
@@ -9505,7 +9505,7 @@
       <c r="R52" s="7"/>
       <c r="S52" s="7"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="6"/>
@@ -9520,7 +9520,7 @@
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="6"/>
@@ -9535,7 +9535,7 @@
       <c r="R54" s="7"/>
       <c r="S54" s="7"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="6"/>
@@ -9549,7 +9549,7 @@
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="6"/>
@@ -9564,7 +9564,7 @@
       <c r="R56" s="7"/>
       <c r="S56" s="7"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="6"/>
@@ -9579,7 +9579,7 @@
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="6"/>
@@ -9594,7 +9594,7 @@
       <c r="R58" s="7"/>
       <c r="S58" s="7"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="6"/>
@@ -9608,7 +9608,7 @@
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="6"/>
@@ -9623,7 +9623,7 @@
       <c r="R60" s="7"/>
       <c r="S60" s="7"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="6"/>
@@ -9637,7 +9637,7 @@
       <c r="R61" s="7"/>
       <c r="S61" s="7"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="6"/>
@@ -9652,7 +9652,7 @@
       <c r="R62" s="7"/>
       <c r="S62" s="7"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="6"/>
@@ -9666,7 +9666,7 @@
       <c r="R63" s="7"/>
       <c r="S63" s="7"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="6"/>
@@ -9681,7 +9681,7 @@
       <c r="R64" s="7"/>
       <c r="S64" s="7"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="6"/>
@@ -9696,7 +9696,7 @@
       <c r="R65" s="7"/>
       <c r="S65" s="7"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="6"/>
@@ -9711,7 +9711,7 @@
       <c r="R66" s="7"/>
       <c r="S66" s="7"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="6"/>
@@ -9726,7 +9726,7 @@
       <c r="R67" s="7"/>
       <c r="S67" s="7"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="6"/>
@@ -9740,7 +9740,7 @@
       <c r="R68" s="7"/>
       <c r="S68" s="7"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="6"/>
@@ -9755,7 +9755,7 @@
       <c r="R69" s="7"/>
       <c r="S69" s="7"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="6"/>
@@ -9770,7 +9770,7 @@
       <c r="R70" s="7"/>
       <c r="S70" s="7"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="6"/>
@@ -9785,7 +9785,7 @@
       <c r="R71" s="7"/>
       <c r="S71" s="7"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="6"/>
@@ -9800,7 +9800,7 @@
       <c r="R72" s="7"/>
       <c r="S72" s="7"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="6"/>
@@ -9815,7 +9815,7 @@
       <c r="R73" s="7"/>
       <c r="S73" s="7"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="6"/>
@@ -9830,7 +9830,7 @@
       <c r="R74" s="7"/>
       <c r="S74" s="7"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="6"/>
@@ -9845,7 +9845,7 @@
       <c r="R75" s="7"/>
       <c r="S75" s="7"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="6"/>
@@ -9860,7 +9860,7 @@
       <c r="R76" s="7"/>
       <c r="S76" s="7"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="6"/>
@@ -9874,7 +9874,7 @@
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="6"/>
@@ -9889,7 +9889,7 @@
       <c r="R78" s="7"/>
       <c r="S78" s="7"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="6"/>
@@ -9903,7 +9903,7 @@
       <c r="R79" s="7"/>
       <c r="S79" s="7"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="6"/>
@@ -9918,7 +9918,7 @@
       <c r="R80" s="7"/>
       <c r="S80" s="7"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="6"/>
@@ -9932,7 +9932,7 @@
       <c r="R81" s="7"/>
       <c r="S81" s="7"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="6"/>
@@ -9947,7 +9947,7 @@
       <c r="R82" s="7"/>
       <c r="S82" s="7"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="6"/>
@@ -9962,7 +9962,7 @@
       <c r="R83" s="7"/>
       <c r="S83" s="7"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="6"/>
@@ -9977,7 +9977,7 @@
       <c r="R84" s="7"/>
       <c r="S84" s="7"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="6"/>
@@ -9991,7 +9991,7 @@
       <c r="R85" s="7"/>
       <c r="S85" s="7"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="6"/>
@@ -10005,7 +10005,7 @@
       <c r="R86" s="7"/>
       <c r="S86" s="7"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="6"/>
@@ -10020,7 +10020,7 @@
       <c r="R87" s="7"/>
       <c r="S87" s="7"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="6"/>
@@ -10035,7 +10035,7 @@
       <c r="R88" s="7"/>
       <c r="S88" s="7"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="6"/>
@@ -10050,7 +10050,7 @@
       <c r="R89" s="7"/>
       <c r="S89" s="7"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="6"/>
@@ -10064,7 +10064,7 @@
       <c r="R90" s="7"/>
       <c r="S90" s="7"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
       <c r="C91" s="6"/>
@@ -10079,7 +10079,7 @@
       <c r="R91" s="7"/>
       <c r="S91" s="7"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
       <c r="C92" s="6"/>
@@ -10093,7 +10093,7 @@
       <c r="R92" s="7"/>
       <c r="S92" s="7"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
       <c r="C93" s="6"/>
@@ -10107,7 +10107,7 @@
       <c r="R93" s="7"/>
       <c r="S93" s="7"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="6"/>
@@ -10121,7 +10121,7 @@
       <c r="R94" s="7"/>
       <c r="S94" s="7"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
       <c r="C95" s="6"/>
@@ -10135,7 +10135,7 @@
       <c r="R95" s="7"/>
       <c r="S95" s="7"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
       <c r="C96" s="6"/>
@@ -10149,7 +10149,7 @@
       <c r="R96" s="7"/>
       <c r="S96" s="7"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
       <c r="C97" s="6"/>
@@ -10163,7 +10163,7 @@
       <c r="R97" s="7"/>
       <c r="S97" s="7"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
       <c r="C98" s="6"/>
@@ -10178,7 +10178,7 @@
       <c r="R98" s="7"/>
       <c r="S98" s="7"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
       <c r="C99" s="6"/>
@@ -10193,7 +10193,7 @@
       <c r="R99" s="7"/>
       <c r="S99" s="7"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="6"/>
@@ -10208,7 +10208,7 @@
       <c r="R100" s="7"/>
       <c r="S100" s="7"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
       <c r="C101" s="6"/>
@@ -10223,7 +10223,7 @@
       <c r="R101" s="7"/>
       <c r="S101" s="7"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
       <c r="C102" s="6"/>
@@ -10238,7 +10238,7 @@
       <c r="R102" s="7"/>
       <c r="S102" s="7"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A103" s="6"/>
       <c r="B103" s="7"/>
       <c r="C103" s="6"/>
@@ -10253,7 +10253,7 @@
       <c r="R103" s="7"/>
       <c r="S103" s="7"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
       <c r="C104" s="6"/>
@@ -10268,7 +10268,7 @@
       <c r="R104" s="7"/>
       <c r="S104" s="7"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
       <c r="C105" s="6"/>
@@ -10283,7 +10283,7 @@
       <c r="R105" s="7"/>
       <c r="S105" s="7"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A106" s="6"/>
       <c r="B106" s="7"/>
       <c r="C106" s="6"/>
@@ -10298,7 +10298,7 @@
       <c r="R106" s="7"/>
       <c r="S106" s="7"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A107" s="6"/>
       <c r="B107" s="7"/>
       <c r="C107" s="6"/>
@@ -10313,7 +10313,7 @@
       <c r="R107" s="7"/>
       <c r="S107" s="7"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A108" s="6"/>
       <c r="B108" s="7"/>
       <c r="C108" s="6"/>
@@ -10328,7 +10328,7 @@
       <c r="R108" s="7"/>
       <c r="S108" s="7"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A109" s="6"/>
       <c r="B109" s="7"/>
       <c r="C109" s="6"/>
@@ -10343,7 +10343,7 @@
       <c r="R109" s="7"/>
       <c r="S109" s="7"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A110" s="6"/>
       <c r="B110" s="7"/>
       <c r="C110" s="6"/>
@@ -10358,7 +10358,7 @@
       <c r="R110" s="7"/>
       <c r="S110" s="7"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A111" s="6"/>
       <c r="B111" s="7"/>
       <c r="C111" s="6"/>
@@ -10373,7 +10373,7 @@
       <c r="R111" s="7"/>
       <c r="S111" s="7"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A112" s="6"/>
       <c r="B112" s="7"/>
       <c r="C112" s="6"/>
@@ -10388,7 +10388,7 @@
       <c r="R112" s="7"/>
       <c r="S112" s="7"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A113" s="6"/>
       <c r="B113" s="7"/>
       <c r="C113" s="6"/>
@@ -10403,7 +10403,7 @@
       <c r="R113" s="7"/>
       <c r="S113" s="7"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A114" s="6"/>
       <c r="B114" s="7"/>
       <c r="C114" s="6"/>
@@ -10418,7 +10418,7 @@
       <c r="R114" s="7"/>
       <c r="S114" s="7"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A115" s="6"/>
       <c r="B115" s="7"/>
       <c r="C115" s="6"/>
@@ -10433,7 +10433,7 @@
       <c r="R115" s="7"/>
       <c r="S115" s="7"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A116" s="6"/>
       <c r="B116" s="7"/>
       <c r="C116" s="6"/>
@@ -10448,7 +10448,7 @@
       <c r="R116" s="7"/>
       <c r="S116" s="7"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A117" s="6"/>
       <c r="B117" s="7"/>
       <c r="C117" s="6"/>
@@ -10463,7 +10463,7 @@
       <c r="R117" s="7"/>
       <c r="S117" s="7"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A118" s="6"/>
       <c r="B118" s="7"/>
       <c r="C118" s="6"/>
@@ -10477,7 +10477,7 @@
       <c r="R118" s="7"/>
       <c r="S118" s="7"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A119" s="6"/>
       <c r="B119" s="7"/>
       <c r="C119" s="6"/>
@@ -10492,7 +10492,7 @@
       <c r="R119" s="7"/>
       <c r="S119" s="7"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
       <c r="C120" s="6"/>
@@ -10507,7 +10507,7 @@
       <c r="R120" s="7"/>
       <c r="S120" s="7"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A121" s="6"/>
       <c r="B121" s="7"/>
       <c r="C121" s="6"/>
@@ -10522,7 +10522,7 @@
       <c r="R121" s="7"/>
       <c r="S121" s="7"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
       <c r="C122" s="6"/>
@@ -10537,7 +10537,7 @@
       <c r="R122" s="7"/>
       <c r="S122" s="7"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A123" s="6"/>
       <c r="B123" s="7"/>
       <c r="C123" s="6"/>
@@ -10552,7 +10552,7 @@
       <c r="R123" s="7"/>
       <c r="S123" s="7"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A124" s="6"/>
       <c r="B124" s="7"/>
       <c r="C124" s="6"/>
@@ -10566,7 +10566,7 @@
       <c r="R124" s="7"/>
       <c r="S124" s="7"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A125" s="6"/>
       <c r="B125" s="7"/>
       <c r="C125" s="6"/>
@@ -10581,7 +10581,7 @@
       <c r="R125" s="7"/>
       <c r="S125" s="7"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A126" s="6"/>
       <c r="B126" s="7"/>
       <c r="C126" s="6"/>
@@ -10596,7 +10596,7 @@
       <c r="R126" s="7"/>
       <c r="S126" s="7"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A127" s="6"/>
       <c r="B127" s="7"/>
       <c r="C127" s="6"/>
@@ -10611,7 +10611,7 @@
       <c r="R127" s="7"/>
       <c r="S127" s="7"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A128" s="6"/>
       <c r="B128" s="7"/>
       <c r="C128" s="6"/>
@@ -10625,7 +10625,7 @@
       <c r="R128" s="7"/>
       <c r="S128" s="7"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A129" s="6"/>
       <c r="B129" s="7"/>
       <c r="C129" s="6"/>
@@ -10640,7 +10640,7 @@
       <c r="R129" s="7"/>
       <c r="S129" s="7"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
       <c r="C130" s="6"/>
@@ -10655,7 +10655,7 @@
       <c r="R130" s="7"/>
       <c r="S130" s="7"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A131" s="6"/>
       <c r="B131" s="7"/>
       <c r="C131" s="6"/>
@@ -10670,7 +10670,7 @@
       <c r="R131" s="7"/>
       <c r="S131" s="7"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A132" s="6"/>
       <c r="B132" s="7"/>
       <c r="C132" s="6"/>
@@ -10685,7 +10685,7 @@
       <c r="R132" s="7"/>
       <c r="S132" s="7"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A133" s="6"/>
       <c r="B133" s="7"/>
       <c r="C133" s="6"/>
@@ -10700,7 +10700,7 @@
       <c r="R133" s="7"/>
       <c r="S133" s="7"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A134" s="6"/>
       <c r="B134" s="7"/>
       <c r="C134" s="6"/>
@@ -10715,7 +10715,7 @@
       <c r="R134" s="7"/>
       <c r="S134" s="7"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
       <c r="C135" s="6"/>
@@ -10730,7 +10730,7 @@
       <c r="R135" s="7"/>
       <c r="S135" s="7"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A136" s="6"/>
       <c r="B136" s="7"/>
       <c r="C136" s="6"/>
@@ -10745,7 +10745,7 @@
       <c r="R136" s="7"/>
       <c r="S136" s="7"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A137" s="6"/>
       <c r="B137" s="7"/>
       <c r="C137" s="6"/>
@@ -10760,7 +10760,7 @@
       <c r="R137" s="7"/>
       <c r="S137" s="7"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A138" s="6"/>
       <c r="B138" s="7"/>
       <c r="C138" s="6"/>
@@ -10775,7 +10775,7 @@
       <c r="R138" s="7"/>
       <c r="S138" s="7"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A139" s="6"/>
       <c r="B139" s="7"/>
       <c r="C139" s="6"/>
@@ -10790,7 +10790,7 @@
       <c r="R139" s="7"/>
       <c r="S139" s="7"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A140" s="6"/>
       <c r="B140" s="7"/>
       <c r="C140" s="6"/>
@@ -10805,7 +10805,7 @@
       <c r="R140" s="7"/>
       <c r="S140" s="7"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A141" s="6"/>
       <c r="B141" s="7"/>
       <c r="C141" s="6"/>
@@ -10820,7 +10820,7 @@
       <c r="R141" s="7"/>
       <c r="S141" s="7"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A142" s="6"/>
       <c r="B142" s="7"/>
       <c r="C142" s="6"/>
@@ -10834,7 +10834,7 @@
       <c r="R142" s="7"/>
       <c r="S142" s="7"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A143" s="6"/>
       <c r="B143" s="7"/>
       <c r="C143" s="6"/>
@@ -10849,7 +10849,7 @@
       <c r="R143" s="7"/>
       <c r="S143" s="7"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A144" s="6"/>
       <c r="B144" s="7"/>
       <c r="C144" s="6"/>
@@ -10865,7 +10865,7 @@
       <c r="R144" s="7"/>
       <c r="S144" s="7"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
       <c r="C145" s="6"/>
@@ -10881,7 +10881,7 @@
       <c r="R145" s="7"/>
       <c r="S145" s="7"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
       <c r="C146" s="6"/>
@@ -10897,7 +10897,7 @@
       <c r="R146" s="7"/>
       <c r="S146" s="7"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A147" s="6"/>
       <c r="B147" s="7"/>
       <c r="C147" s="6"/>
@@ -10912,7 +10912,7 @@
       <c r="R147" s="7"/>
       <c r="S147" s="7"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A148" s="6"/>
       <c r="B148" s="7"/>
       <c r="C148" s="6"/>
@@ -10927,7 +10927,7 @@
       <c r="R148" s="7"/>
       <c r="S148" s="7"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A149" s="6"/>
       <c r="B149" s="7"/>
       <c r="C149" s="6"/>
@@ -10942,7 +10942,7 @@
       <c r="R149" s="7"/>
       <c r="S149" s="7"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A150" s="6"/>
       <c r="B150" s="7"/>
       <c r="C150" s="6"/>
@@ -10957,7 +10957,7 @@
       <c r="R150" s="7"/>
       <c r="S150" s="7"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A151" s="6"/>
       <c r="B151" s="7"/>
       <c r="C151" s="6"/>
@@ -10972,7 +10972,7 @@
       <c r="R151" s="7"/>
       <c r="S151" s="7"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A152" s="6"/>
       <c r="B152" s="7"/>
       <c r="C152" s="6"/>
@@ -10987,7 +10987,7 @@
       <c r="R152" s="7"/>
       <c r="S152" s="7"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A153" s="6"/>
       <c r="B153" s="7"/>
       <c r="C153" s="6"/>
@@ -11002,7 +11002,7 @@
       <c r="R153" s="7"/>
       <c r="S153" s="7"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A154" s="6"/>
       <c r="B154" s="7"/>
       <c r="C154" s="6"/>
@@ -11017,7 +11017,7 @@
       <c r="R154" s="7"/>
       <c r="S154" s="7"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A155" s="6"/>
       <c r="B155" s="7"/>
       <c r="C155" s="6"/>
@@ -11032,7 +11032,7 @@
       <c r="R155" s="7"/>
       <c r="S155" s="7"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A156" s="6"/>
       <c r="B156" s="7"/>
       <c r="C156" s="6"/>
@@ -11046,7 +11046,7 @@
       <c r="R156" s="7"/>
       <c r="S156" s="7"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A157" s="6"/>
       <c r="B157" s="7"/>
       <c r="C157" s="6"/>
@@ -11061,7 +11061,7 @@
       <c r="R157" s="7"/>
       <c r="S157" s="7"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A158" s="6"/>
       <c r="B158" s="7"/>
       <c r="C158" s="6"/>
@@ -11076,7 +11076,7 @@
       <c r="R158" s="7"/>
       <c r="S158" s="7"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A159" s="6"/>
       <c r="B159" s="7"/>
       <c r="C159" s="6"/>
@@ -11090,7 +11090,7 @@
       <c r="R159" s="7"/>
       <c r="S159" s="7"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A160" s="6"/>
       <c r="B160" s="7"/>
       <c r="C160" s="6"/>
@@ -11105,7 +11105,7 @@
       <c r="R160" s="7"/>
       <c r="S160" s="7"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A161" s="6"/>
       <c r="B161" s="7"/>
       <c r="C161" s="6"/>
@@ -11120,7 +11120,7 @@
       <c r="R161" s="7"/>
       <c r="S161" s="7"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A162" s="6"/>
       <c r="B162" s="7"/>
       <c r="C162" s="6"/>
@@ -11135,7 +11135,7 @@
       <c r="R162" s="7"/>
       <c r="S162" s="7"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A163" s="6"/>
       <c r="B163" s="7"/>
       <c r="C163" s="6"/>
@@ -11149,7 +11149,7 @@
       <c r="R163" s="7"/>
       <c r="S163" s="7"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A164" s="6"/>
       <c r="B164" s="7"/>
       <c r="C164" s="6"/>
@@ -11164,7 +11164,7 @@
       <c r="R164" s="7"/>
       <c r="S164" s="7"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A165" s="6"/>
       <c r="B165" s="7"/>
       <c r="C165" s="6"/>
@@ -11179,7 +11179,7 @@
       <c r="R165" s="7"/>
       <c r="S165" s="7"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A166" s="6"/>
       <c r="B166" s="7"/>
       <c r="C166" s="6"/>
@@ -11194,7 +11194,7 @@
       <c r="R166" s="7"/>
       <c r="S166" s="7"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A167" s="6"/>
       <c r="B167" s="7"/>
       <c r="C167" s="6"/>
@@ -11209,7 +11209,7 @@
       <c r="R167" s="7"/>
       <c r="S167" s="7"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A168" s="6"/>
       <c r="B168" s="7"/>
       <c r="C168" s="6"/>
@@ -11224,7 +11224,7 @@
       <c r="R168" s="7"/>
       <c r="S168" s="7"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A169" s="6"/>
       <c r="B169" s="7"/>
       <c r="C169" s="6"/>
@@ -11239,7 +11239,7 @@
       <c r="R169" s="7"/>
       <c r="S169" s="7"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A170" s="6"/>
       <c r="B170" s="7"/>
       <c r="C170" s="6"/>
@@ -11254,7 +11254,7 @@
       <c r="R170" s="7"/>
       <c r="S170" s="7"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A171" s="6"/>
       <c r="B171" s="7"/>
       <c r="C171" s="6"/>
@@ -11269,7 +11269,7 @@
       <c r="R171" s="7"/>
       <c r="S171" s="7"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A172" s="6"/>
       <c r="B172" s="7"/>
       <c r="C172" s="6"/>
@@ -11284,7 +11284,7 @@
       <c r="R172" s="7"/>
       <c r="S172" s="7"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A173" s="6"/>
       <c r="B173" s="7"/>
       <c r="C173" s="6"/>
@@ -11298,7 +11298,7 @@
       <c r="R173" s="7"/>
       <c r="S173" s="7"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A174" s="6"/>
       <c r="B174" s="7"/>
       <c r="C174" s="6"/>
@@ -11313,7 +11313,7 @@
       <c r="R174" s="7"/>
       <c r="S174" s="7"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A175" s="6"/>
       <c r="B175" s="7"/>
       <c r="C175" s="6"/>
@@ -11328,7 +11328,7 @@
       <c r="R175" s="7"/>
       <c r="S175" s="7"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A176" s="6"/>
       <c r="B176" s="7"/>
       <c r="C176" s="6"/>
@@ -11357,21 +11357,21 @@
   </sheetPr>
   <dimension ref="A1:K382"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="10" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.1328125" customWidth="1"/>
+    <col min="3" max="3" width="16.3984375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.86328125" customWidth="1"/>
+    <col min="5" max="5" width="14.1328125" customWidth="1"/>
+    <col min="6" max="6" width="10.1328125" customWidth="1"/>
+    <col min="7" max="10" width="15.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
         <v>544</v>
       </c>
@@ -11406,7 +11406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="7"/>
       <c r="B2" s="6"/>
       <c r="C2"/>
@@ -11417,7 +11417,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="7"/>
       <c r="B3" s="6"/>
       <c r="C3"/>
@@ -11428,7 +11428,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="7"/>
       <c r="B4" s="6"/>
       <c r="C4"/>
@@ -11439,7 +11439,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="7"/>
       <c r="B5" s="6"/>
       <c r="C5"/>
@@ -11450,7 +11450,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="7"/>
       <c r="B6" s="6"/>
       <c r="C6"/>
@@ -11461,7 +11461,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="7"/>
       <c r="B7" s="6"/>
       <c r="C7"/>
@@ -11474,7 +11474,7 @@
       <c r="J7" s="6"/>
       <c r="K7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="7"/>
       <c r="B8" s="6"/>
       <c r="C8"/>
@@ -11485,7 +11485,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="7"/>
       <c r="B9" s="6"/>
       <c r="C9"/>
@@ -11496,7 +11496,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="7"/>
       <c r="B10" s="6"/>
       <c r="C10"/>
@@ -11507,7 +11507,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="7"/>
       <c r="B11" s="6"/>
       <c r="C11"/>
@@ -11518,7 +11518,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
       <c r="B12" s="6"/>
       <c r="C12"/>
@@ -11529,7 +11529,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="7"/>
       <c r="B13" s="6"/>
       <c r="C13"/>
@@ -11540,7 +11540,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="7"/>
       <c r="B14" s="6"/>
       <c r="C14"/>
@@ -11551,7 +11551,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="7"/>
       <c r="B15" s="6"/>
       <c r="C15"/>
@@ -11562,7 +11562,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="7"/>
       <c r="B16" s="6"/>
       <c r="C16"/>
@@ -11573,7 +11573,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="7"/>
       <c r="B17" s="6"/>
       <c r="C17"/>
@@ -11584,7 +11584,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="7"/>
       <c r="B18" s="6"/>
       <c r="C18"/>
@@ -11595,7 +11595,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="7"/>
       <c r="B19" s="6"/>
       <c r="C19"/>
@@ -11606,7 +11606,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="7"/>
       <c r="B20" s="6"/>
       <c r="C20"/>
@@ -11617,7 +11617,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="7"/>
       <c r="B21" s="6"/>
       <c r="C21"/>
@@ -11628,7 +11628,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="7"/>
       <c r="B22" s="6"/>
       <c r="C22"/>
@@ -11639,7 +11639,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="7"/>
       <c r="B23" s="6"/>
       <c r="C23"/>
@@ -11650,7 +11650,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="7"/>
       <c r="B24" s="6"/>
       <c r="C24"/>
@@ -11661,7 +11661,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
       <c r="B25" s="6"/>
       <c r="C25"/>
@@ -11672,7 +11672,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="7"/>
       <c r="B26" s="6"/>
       <c r="C26"/>
@@ -11683,7 +11683,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="7"/>
       <c r="B27" s="6"/>
       <c r="C27"/>
@@ -11694,7 +11694,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="7"/>
       <c r="B28" s="6"/>
       <c r="C28"/>
@@ -11705,7 +11705,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="7"/>
       <c r="B29" s="6"/>
       <c r="C29"/>
@@ -11716,7 +11716,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="7"/>
       <c r="B30" s="6"/>
       <c r="C30"/>
@@ -11727,7 +11727,7 @@
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="7"/>
       <c r="B31" s="6"/>
       <c r="C31"/>
@@ -11738,7 +11738,7 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="7"/>
       <c r="B32" s="6"/>
       <c r="C32"/>
@@ -11749,7 +11749,7 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="7"/>
       <c r="B33" s="6"/>
       <c r="C33"/>
@@ -11760,7 +11760,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="7"/>
       <c r="B34" s="6"/>
       <c r="C34"/>
@@ -11771,7 +11771,7 @@
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="7"/>
       <c r="B35" s="6"/>
       <c r="C35"/>
@@ -11782,7 +11782,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="7"/>
       <c r="B36" s="6"/>
       <c r="C36"/>
@@ -11793,7 +11793,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="7"/>
       <c r="B37" s="6"/>
       <c r="C37"/>
@@ -11804,7 +11804,7 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="7"/>
       <c r="B38" s="6"/>
       <c r="C38"/>
@@ -11815,7 +11815,7 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="7"/>
       <c r="B39" s="6"/>
       <c r="C39"/>
@@ -11826,7 +11826,7 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="7"/>
       <c r="B40" s="6"/>
       <c r="C40"/>
@@ -11837,7 +11837,7 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="7"/>
       <c r="B41" s="6"/>
       <c r="C41"/>
@@ -11848,7 +11848,7 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="7"/>
       <c r="B42" s="6"/>
       <c r="C42"/>
@@ -11859,7 +11859,7 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="7"/>
       <c r="B43" s="6"/>
       <c r="C43"/>
@@ -11870,7 +11870,7 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="7"/>
       <c r="B44" s="6"/>
       <c r="C44"/>
@@ -11881,7 +11881,7 @@
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="7"/>
       <c r="B45" s="6"/>
       <c r="C45"/>
@@ -11892,7 +11892,7 @@
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="7"/>
       <c r="B46" s="6"/>
       <c r="C46"/>
@@ -11903,7 +11903,7 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="7"/>
       <c r="B47" s="6"/>
       <c r="C47"/>
@@ -11914,7 +11914,7 @@
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" s="7"/>
       <c r="B48" s="6"/>
       <c r="C48"/>
@@ -11925,7 +11925,7 @@
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" s="7"/>
       <c r="B49" s="6"/>
       <c r="C49"/>
@@ -11936,7 +11936,7 @@
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="7"/>
       <c r="B50" s="6"/>
       <c r="C50"/>
@@ -11947,7 +11947,7 @@
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" s="7"/>
       <c r="B51" s="6"/>
       <c r="C51"/>
@@ -11958,7 +11958,7 @@
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" s="7"/>
       <c r="B52" s="6"/>
       <c r="C52"/>
@@ -11969,7 +11969,7 @@
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" s="7"/>
       <c r="B53" s="6"/>
       <c r="C53"/>
@@ -11980,7 +11980,7 @@
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" s="7"/>
       <c r="B54" s="6"/>
       <c r="C54"/>
@@ -11991,7 +11991,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" s="7"/>
       <c r="B55" s="6"/>
       <c r="C55"/>
@@ -12002,7 +12002,7 @@
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" s="7"/>
       <c r="B56" s="6"/>
       <c r="C56"/>
@@ -12013,7 +12013,7 @@
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" s="7"/>
       <c r="B57" s="6"/>
       <c r="C57"/>
@@ -12024,7 +12024,7 @@
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" s="7"/>
       <c r="B58" s="6"/>
       <c r="C58"/>
@@ -12035,7 +12035,7 @@
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" s="7"/>
       <c r="B59" s="6"/>
       <c r="C59"/>
@@ -12046,7 +12046,7 @@
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" s="7"/>
       <c r="B60" s="6"/>
       <c r="C60"/>
@@ -12057,7 +12057,7 @@
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" s="7"/>
       <c r="B61" s="6"/>
       <c r="C61"/>
@@ -12068,7 +12068,7 @@
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" s="7"/>
       <c r="B62" s="6"/>
       <c r="C62"/>
@@ -12079,7 +12079,7 @@
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" s="7"/>
       <c r="B63" s="6"/>
       <c r="C63"/>
@@ -12090,7 +12090,7 @@
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" s="7"/>
       <c r="B64" s="6"/>
       <c r="C64"/>
@@ -12101,7 +12101,7 @@
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" s="7"/>
       <c r="B65" s="6"/>
       <c r="C65"/>
@@ -12112,7 +12112,7 @@
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" s="7"/>
       <c r="B66" s="6"/>
       <c r="C66"/>
@@ -12123,7 +12123,7 @@
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" s="7"/>
       <c r="B67" s="6"/>
       <c r="C67"/>
@@ -12134,7 +12134,7 @@
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" s="7"/>
       <c r="B68" s="6"/>
       <c r="C68"/>
@@ -12145,7 +12145,7 @@
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" s="7"/>
       <c r="B69" s="6"/>
       <c r="C69"/>
@@ -12156,7 +12156,7 @@
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" s="7"/>
       <c r="B70" s="6"/>
       <c r="C70"/>
@@ -12167,7 +12167,7 @@
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" s="7"/>
       <c r="B71" s="6"/>
       <c r="C71"/>
@@ -12178,7 +12178,7 @@
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" s="7"/>
       <c r="B72" s="6"/>
       <c r="C72"/>
@@ -12189,7 +12189,7 @@
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" s="7"/>
       <c r="B73" s="6"/>
       <c r="C73"/>
@@ -12200,7 +12200,7 @@
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" s="7"/>
       <c r="B74" s="6"/>
       <c r="C74"/>
@@ -12211,7 +12211,7 @@
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" s="7"/>
       <c r="B75" s="6"/>
       <c r="C75"/>
@@ -12222,7 +12222,7 @@
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" s="7"/>
       <c r="B76" s="6"/>
       <c r="C76"/>
@@ -12233,7 +12233,7 @@
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" s="7"/>
       <c r="B77" s="6"/>
       <c r="C77"/>
@@ -12244,7 +12244,7 @@
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" s="7"/>
       <c r="B78" s="6"/>
       <c r="C78"/>
@@ -12255,7 +12255,7 @@
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" s="7"/>
       <c r="B79" s="6"/>
       <c r="C79"/>
@@ -12266,7 +12266,7 @@
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" s="7"/>
       <c r="B80" s="6"/>
       <c r="C80"/>
@@ -12277,7 +12277,7 @@
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81" s="7"/>
       <c r="B81" s="6"/>
       <c r="C81"/>
@@ -12288,7 +12288,7 @@
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" s="7"/>
       <c r="B82" s="6"/>
       <c r="C82"/>
@@ -12299,7 +12299,7 @@
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" s="7"/>
       <c r="B83" s="6"/>
       <c r="C83"/>
@@ -12310,7 +12310,7 @@
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84" s="7"/>
       <c r="B84" s="6"/>
       <c r="C84"/>
@@ -12321,7 +12321,7 @@
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85" s="7"/>
       <c r="B85" s="6"/>
       <c r="C85"/>
@@ -12332,7 +12332,7 @@
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86" s="7"/>
       <c r="B86" s="6"/>
       <c r="C86"/>
@@ -12343,7 +12343,7 @@
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87" s="7"/>
       <c r="B87" s="6"/>
       <c r="C87"/>
@@ -12354,7 +12354,7 @@
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88" s="7"/>
       <c r="B88" s="6"/>
       <c r="C88"/>
@@ -12365,7 +12365,7 @@
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89" s="7"/>
       <c r="B89" s="6"/>
       <c r="C89"/>
@@ -12376,7 +12376,7 @@
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90" s="7"/>
       <c r="B90" s="6"/>
       <c r="C90"/>
@@ -12387,7 +12387,7 @@
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91" s="7"/>
       <c r="B91" s="6"/>
       <c r="C91"/>
@@ -12398,7 +12398,7 @@
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92" s="7"/>
       <c r="B92" s="6"/>
       <c r="C92"/>
@@ -12409,7 +12409,7 @@
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93" s="7"/>
       <c r="B93" s="6"/>
       <c r="C93"/>
@@ -12420,7 +12420,7 @@
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94" s="7"/>
       <c r="B94" s="6"/>
       <c r="C94"/>
@@ -12431,7 +12431,7 @@
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95" s="7"/>
       <c r="B95" s="6"/>
       <c r="C95"/>
@@ -12442,7 +12442,7 @@
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96" s="7"/>
       <c r="B96" s="6"/>
       <c r="C96"/>
@@ -12453,7 +12453,7 @@
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" s="7"/>
       <c r="B97" s="6"/>
       <c r="C97"/>
@@ -12464,7 +12464,7 @@
       <c r="I97" s="6"/>
       <c r="J97" s="6"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" s="7"/>
       <c r="B98" s="6"/>
       <c r="C98"/>
@@ -12475,7 +12475,7 @@
       <c r="I98" s="6"/>
       <c r="J98" s="6"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" s="7"/>
       <c r="B99" s="6"/>
       <c r="C99"/>
@@ -12486,7 +12486,7 @@
       <c r="I99" s="6"/>
       <c r="J99" s="6"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" s="7"/>
       <c r="B100" s="6"/>
       <c r="C100"/>
@@ -12497,7 +12497,7 @@
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" s="7"/>
       <c r="B101" s="6"/>
       <c r="C101"/>
@@ -12508,7 +12508,7 @@
       <c r="I101" s="6"/>
       <c r="J101" s="6"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" s="7"/>
       <c r="B102" s="6"/>
       <c r="C102"/>
@@ -12519,7 +12519,7 @@
       <c r="I102" s="6"/>
       <c r="J102" s="6"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" s="7"/>
       <c r="B103" s="6"/>
       <c r="C103"/>
@@ -12530,7 +12530,7 @@
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" s="7"/>
       <c r="B104" s="6"/>
       <c r="C104"/>
@@ -12541,7 +12541,7 @@
       <c r="I104" s="6"/>
       <c r="J104" s="6"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105" s="7"/>
       <c r="B105" s="6"/>
       <c r="C105"/>
@@ -12552,7 +12552,7 @@
       <c r="I105" s="6"/>
       <c r="J105" s="6"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A106" s="7"/>
       <c r="B106" s="6"/>
       <c r="C106"/>
@@ -12563,7 +12563,7 @@
       <c r="I106" s="6"/>
       <c r="J106" s="6"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A107" s="7"/>
       <c r="B107" s="6"/>
       <c r="C107"/>
@@ -12574,7 +12574,7 @@
       <c r="I107" s="6"/>
       <c r="J107" s="6"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A108" s="7"/>
       <c r="B108" s="6"/>
       <c r="C108"/>
@@ -12585,7 +12585,7 @@
       <c r="I108" s="6"/>
       <c r="J108" s="6"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A109" s="7"/>
       <c r="B109" s="6"/>
       <c r="C109"/>
@@ -12596,7 +12596,7 @@
       <c r="I109" s="6"/>
       <c r="J109" s="6"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A110" s="7"/>
       <c r="B110" s="6"/>
       <c r="C110"/>
@@ -12607,7 +12607,7 @@
       <c r="I110" s="6"/>
       <c r="J110" s="6"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A111" s="7"/>
       <c r="B111" s="6"/>
       <c r="C111"/>
@@ -12618,7 +12618,7 @@
       <c r="I111" s="6"/>
       <c r="J111" s="6"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A112" s="7"/>
       <c r="B112" s="6"/>
       <c r="C112"/>
@@ -12629,7 +12629,7 @@
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A113" s="7"/>
       <c r="B113" s="6"/>
       <c r="C113"/>
@@ -12640,7 +12640,7 @@
       <c r="I113" s="6"/>
       <c r="J113" s="6"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A114" s="7"/>
       <c r="B114" s="6"/>
       <c r="C114"/>
@@ -12651,7 +12651,7 @@
       <c r="I114" s="6"/>
       <c r="J114" s="6"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A115" s="7"/>
       <c r="B115" s="6"/>
       <c r="C115"/>
@@ -12662,7 +12662,7 @@
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A116" s="7"/>
       <c r="B116" s="6"/>
       <c r="C116"/>
@@ -12673,7 +12673,7 @@
       <c r="I116" s="6"/>
       <c r="J116" s="6"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A117" s="7"/>
       <c r="B117" s="6"/>
       <c r="C117"/>
@@ -12684,7 +12684,7 @@
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A118" s="7"/>
       <c r="B118" s="6"/>
       <c r="C118"/>
@@ -12695,7 +12695,7 @@
       <c r="I118" s="6"/>
       <c r="J118" s="6"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A119" s="7"/>
       <c r="B119" s="6"/>
       <c r="C119"/>
@@ -12706,7 +12706,7 @@
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A120" s="7"/>
       <c r="B120" s="6"/>
       <c r="C120"/>
@@ -12717,7 +12717,7 @@
       <c r="I120" s="6"/>
       <c r="J120" s="6"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A121" s="7"/>
       <c r="B121" s="6"/>
       <c r="C121"/>
@@ -12728,7 +12728,7 @@
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A122" s="7"/>
       <c r="B122" s="6"/>
       <c r="C122"/>
@@ -12739,7 +12739,7 @@
       <c r="I122" s="6"/>
       <c r="J122" s="6"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A123" s="7"/>
       <c r="B123" s="6"/>
       <c r="C123"/>
@@ -12750,7 +12750,7 @@
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A124" s="7"/>
       <c r="B124" s="6"/>
       <c r="C124"/>
@@ -12761,7 +12761,7 @@
       <c r="I124" s="6"/>
       <c r="J124" s="6"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A125" s="7"/>
       <c r="B125" s="6"/>
       <c r="C125"/>
@@ -12772,7 +12772,7 @@
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A126" s="7"/>
       <c r="B126" s="6"/>
       <c r="C126"/>
@@ -12783,7 +12783,7 @@
       <c r="I126" s="6"/>
       <c r="J126" s="6"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A127" s="7"/>
       <c r="B127" s="6"/>
       <c r="C127"/>
@@ -12794,7 +12794,7 @@
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A128" s="7"/>
       <c r="B128" s="6"/>
       <c r="C128"/>
@@ -12805,7 +12805,7 @@
       <c r="I128" s="6"/>
       <c r="J128" s="6"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A129" s="7"/>
       <c r="B129" s="6"/>
       <c r="C129"/>
@@ -12816,7 +12816,7 @@
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A130" s="7"/>
       <c r="B130" s="6"/>
       <c r="C130"/>
@@ -12827,7 +12827,7 @@
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A131" s="7"/>
       <c r="B131" s="6"/>
       <c r="C131"/>
@@ -12838,7 +12838,7 @@
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A132" s="7"/>
       <c r="B132" s="6"/>
       <c r="C132"/>
@@ -12849,7 +12849,7 @@
       <c r="I132" s="6"/>
       <c r="J132" s="6"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A133" s="7"/>
       <c r="B133" s="6"/>
       <c r="C133"/>
@@ -12860,7 +12860,7 @@
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A134" s="7"/>
       <c r="B134" s="6"/>
       <c r="C134"/>
@@ -12871,7 +12871,7 @@
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A135" s="7"/>
       <c r="B135" s="6"/>
       <c r="C135"/>
@@ -12882,7 +12882,7 @@
       <c r="I135" s="6"/>
       <c r="J135" s="6"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A136" s="7"/>
       <c r="B136" s="6"/>
       <c r="C136"/>
@@ -12893,7 +12893,7 @@
       <c r="I136" s="6"/>
       <c r="J136" s="6"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A137" s="7"/>
       <c r="B137" s="6"/>
       <c r="C137"/>
@@ -12904,7 +12904,7 @@
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A138" s="7"/>
       <c r="B138" s="6"/>
       <c r="C138"/>
@@ -12915,7 +12915,7 @@
       <c r="I138" s="6"/>
       <c r="J138" s="6"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A139" s="7"/>
       <c r="B139" s="6"/>
       <c r="C139"/>
@@ -12926,7 +12926,7 @@
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A140" s="7"/>
       <c r="B140" s="6"/>
       <c r="C140"/>
@@ -12937,7 +12937,7 @@
       <c r="I140" s="6"/>
       <c r="J140" s="6"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A141" s="7"/>
       <c r="B141" s="6"/>
       <c r="C141"/>
@@ -12948,7 +12948,7 @@
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A142" s="7"/>
       <c r="B142" s="6"/>
       <c r="C142"/>
@@ -12959,7 +12959,7 @@
       <c r="I142" s="6"/>
       <c r="J142" s="6"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A143" s="7"/>
       <c r="B143" s="6"/>
       <c r="C143"/>
@@ -12970,7 +12970,7 @@
       <c r="I143" s="6"/>
       <c r="J143" s="6"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A144" s="7"/>
       <c r="B144" s="6"/>
       <c r="C144"/>
@@ -12981,7 +12981,7 @@
       <c r="I144" s="6"/>
       <c r="J144" s="6"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A145" s="7"/>
       <c r="B145" s="6"/>
       <c r="C145"/>
@@ -12992,7 +12992,7 @@
       <c r="I145" s="6"/>
       <c r="J145" s="6"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A146" s="7"/>
       <c r="B146" s="6"/>
       <c r="C146"/>
@@ -13003,7 +13003,7 @@
       <c r="I146" s="6"/>
       <c r="J146" s="6"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A147" s="7"/>
       <c r="B147" s="6"/>
       <c r="C147"/>
@@ -13014,7 +13014,7 @@
       <c r="I147" s="6"/>
       <c r="J147" s="6"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A148" s="7"/>
       <c r="B148" s="6"/>
       <c r="C148"/>
@@ -13025,7 +13025,7 @@
       <c r="I148" s="6"/>
       <c r="J148" s="6"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A149" s="7"/>
       <c r="B149" s="6"/>
       <c r="C149"/>
@@ -13036,7 +13036,7 @@
       <c r="I149" s="6"/>
       <c r="J149" s="6"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A150" s="7"/>
       <c r="B150" s="6"/>
       <c r="C150"/>
@@ -13047,7 +13047,7 @@
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A151" s="7"/>
       <c r="B151" s="6"/>
       <c r="C151"/>
@@ -13058,7 +13058,7 @@
       <c r="I151" s="6"/>
       <c r="J151" s="6"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A152" s="7"/>
       <c r="B152" s="6"/>
       <c r="C152"/>
@@ -13069,7 +13069,7 @@
       <c r="I152" s="6"/>
       <c r="J152" s="6"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A153" s="7"/>
       <c r="B153" s="6"/>
       <c r="C153"/>
@@ -13080,7 +13080,7 @@
       <c r="I153" s="6"/>
       <c r="J153" s="6"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A154" s="7"/>
       <c r="B154" s="6"/>
       <c r="C154"/>
@@ -13091,7 +13091,7 @@
       <c r="I154" s="6"/>
       <c r="J154" s="6"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A155" s="7"/>
       <c r="B155" s="6"/>
       <c r="C155"/>
@@ -13102,7 +13102,7 @@
       <c r="I155" s="6"/>
       <c r="J155" s="6"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A156" s="7"/>
       <c r="B156" s="6"/>
       <c r="C156"/>
@@ -13113,7 +13113,7 @@
       <c r="I156" s="6"/>
       <c r="J156" s="6"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A157" s="7"/>
       <c r="B157" s="6"/>
       <c r="C157"/>
@@ -13124,7 +13124,7 @@
       <c r="I157" s="6"/>
       <c r="J157" s="6"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A158" s="7"/>
       <c r="B158" s="6"/>
       <c r="C158"/>
@@ -13135,7 +13135,7 @@
       <c r="I158" s="6"/>
       <c r="J158" s="6"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A159" s="7"/>
       <c r="B159" s="6"/>
       <c r="C159"/>
@@ -13146,7 +13146,7 @@
       <c r="I159" s="6"/>
       <c r="J159" s="6"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A160" s="7"/>
       <c r="B160" s="6"/>
       <c r="C160"/>
@@ -13157,7 +13157,7 @@
       <c r="I160" s="6"/>
       <c r="J160" s="6"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A161" s="7"/>
       <c r="B161" s="6"/>
       <c r="C161"/>
@@ -13168,7 +13168,7 @@
       <c r="I161" s="6"/>
       <c r="J161" s="6"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A162" s="7"/>
       <c r="B162" s="6"/>
       <c r="C162"/>
@@ -13179,7 +13179,7 @@
       <c r="I162" s="6"/>
       <c r="J162" s="6"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A163" s="7"/>
       <c r="B163" s="6"/>
       <c r="C163"/>
@@ -13190,7 +13190,7 @@
       <c r="I163" s="6"/>
       <c r="J163" s="6"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A164" s="7"/>
       <c r="B164" s="6"/>
       <c r="C164"/>
@@ -13201,7 +13201,7 @@
       <c r="I164" s="6"/>
       <c r="J164" s="6"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A165" s="7"/>
       <c r="B165" s="6"/>
       <c r="C165"/>
@@ -13212,7 +13212,7 @@
       <c r="I165" s="6"/>
       <c r="J165" s="6"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A166" s="7"/>
       <c r="B166" s="6"/>
       <c r="C166"/>
@@ -13223,7 +13223,7 @@
       <c r="I166" s="6"/>
       <c r="J166" s="6"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A167" s="7"/>
       <c r="B167" s="6"/>
       <c r="C167"/>
@@ -13234,7 +13234,7 @@
       <c r="I167" s="6"/>
       <c r="J167" s="6"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A168" s="7"/>
       <c r="B168" s="6"/>
       <c r="C168"/>
@@ -13245,7 +13245,7 @@
       <c r="I168" s="6"/>
       <c r="J168" s="6"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A169" s="7"/>
       <c r="B169" s="6"/>
       <c r="C169"/>
@@ -13256,7 +13256,7 @@
       <c r="I169" s="6"/>
       <c r="J169" s="6"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A170" s="7"/>
       <c r="B170" s="6"/>
       <c r="C170"/>
@@ -13267,7 +13267,7 @@
       <c r="I170" s="6"/>
       <c r="J170" s="6"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A171" s="7"/>
       <c r="B171" s="6"/>
       <c r="C171"/>
@@ -13278,7 +13278,7 @@
       <c r="I171" s="6"/>
       <c r="J171" s="6"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A172" s="7"/>
       <c r="B172" s="6"/>
       <c r="C172"/>
@@ -13289,7 +13289,7 @@
       <c r="I172" s="6"/>
       <c r="J172" s="6"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A173" s="7"/>
       <c r="B173" s="6"/>
       <c r="C173"/>
@@ -13300,7 +13300,7 @@
       <c r="I173" s="6"/>
       <c r="J173" s="6"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A174" s="7"/>
       <c r="B174" s="6"/>
       <c r="C174"/>
@@ -13311,7 +13311,7 @@
       <c r="I174" s="6"/>
       <c r="J174" s="6"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A175" s="7"/>
       <c r="B175" s="6"/>
       <c r="C175"/>
@@ -13322,7 +13322,7 @@
       <c r="I175" s="6"/>
       <c r="J175" s="6"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A176" s="7"/>
       <c r="B176" s="6"/>
       <c r="C176"/>
@@ -13333,7 +13333,7 @@
       <c r="I176" s="6"/>
       <c r="J176" s="6"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A177" s="7"/>
       <c r="B177" s="6"/>
       <c r="C177"/>
@@ -13344,7 +13344,7 @@
       <c r="I177" s="6"/>
       <c r="J177" s="6"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A178" s="7"/>
       <c r="B178" s="6"/>
       <c r="C178"/>
@@ -13355,7 +13355,7 @@
       <c r="I178" s="6"/>
       <c r="J178" s="6"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A179" s="7"/>
       <c r="B179" s="6"/>
       <c r="C179"/>
@@ -13366,7 +13366,7 @@
       <c r="I179" s="6"/>
       <c r="J179" s="6"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A180" s="7"/>
       <c r="B180" s="6"/>
       <c r="C180"/>
@@ -13377,7 +13377,7 @@
       <c r="I180" s="6"/>
       <c r="J180" s="6"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A181" s="7"/>
       <c r="B181" s="6"/>
       <c r="C181"/>
@@ -13388,7 +13388,7 @@
       <c r="I181" s="6"/>
       <c r="J181" s="6"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A182" s="7"/>
       <c r="B182" s="6"/>
       <c r="C182"/>
@@ -13399,7 +13399,7 @@
       <c r="I182" s="6"/>
       <c r="J182" s="6"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A183" s="7"/>
       <c r="B183" s="6"/>
       <c r="C183"/>
@@ -13410,7 +13410,7 @@
       <c r="I183" s="6"/>
       <c r="J183" s="6"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A184" s="7"/>
       <c r="B184" s="6"/>
       <c r="C184"/>
@@ -13421,7 +13421,7 @@
       <c r="I184" s="6"/>
       <c r="J184" s="6"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A185" s="7"/>
       <c r="B185" s="6"/>
       <c r="C185"/>
@@ -13432,7 +13432,7 @@
       <c r="I185" s="6"/>
       <c r="J185" s="6"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A186" s="7"/>
       <c r="B186" s="6"/>
       <c r="C186"/>
@@ -13443,7 +13443,7 @@
       <c r="I186" s="6"/>
       <c r="J186" s="6"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A187" s="7"/>
       <c r="B187" s="6"/>
       <c r="C187"/>
@@ -13454,7 +13454,7 @@
       <c r="I187" s="6"/>
       <c r="J187" s="6"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A188" s="7"/>
       <c r="B188" s="6"/>
       <c r="C188"/>
@@ -13465,7 +13465,7 @@
       <c r="I188" s="6"/>
       <c r="J188" s="6"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A189" s="7"/>
       <c r="B189" s="6"/>
       <c r="C189"/>
@@ -13476,7 +13476,7 @@
       <c r="I189" s="6"/>
       <c r="J189" s="6"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A190" s="7"/>
       <c r="B190" s="6"/>
       <c r="C190"/>
@@ -13487,7 +13487,7 @@
       <c r="I190" s="6"/>
       <c r="J190" s="6"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A191" s="7"/>
       <c r="B191" s="6"/>
       <c r="C191"/>
@@ -13498,7 +13498,7 @@
       <c r="I191" s="6"/>
       <c r="J191" s="6"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A192" s="7"/>
       <c r="B192" s="6"/>
       <c r="C192"/>
@@ -13509,7 +13509,7 @@
       <c r="I192" s="6"/>
       <c r="J192" s="6"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A193" s="7"/>
       <c r="B193" s="6"/>
       <c r="C193"/>
@@ -13520,7 +13520,7 @@
       <c r="I193" s="6"/>
       <c r="J193" s="6"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A194" s="7"/>
       <c r="B194" s="6"/>
       <c r="C194"/>
@@ -13531,7 +13531,7 @@
       <c r="I194" s="6"/>
       <c r="J194" s="6"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A195" s="7"/>
       <c r="B195" s="6"/>
       <c r="C195"/>
@@ -13542,7 +13542,7 @@
       <c r="I195" s="6"/>
       <c r="J195" s="6"/>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A196" s="7"/>
       <c r="B196" s="6"/>
       <c r="C196"/>
@@ -13553,7 +13553,7 @@
       <c r="I196" s="6"/>
       <c r="J196" s="6"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A197" s="7"/>
       <c r="B197" s="6"/>
       <c r="C197"/>
@@ -13564,7 +13564,7 @@
       <c r="I197" s="6"/>
       <c r="J197" s="6"/>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A198" s="7"/>
       <c r="B198" s="6"/>
       <c r="C198"/>
@@ -13575,7 +13575,7 @@
       <c r="I198" s="6"/>
       <c r="J198" s="6"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A199" s="7"/>
       <c r="B199" s="6"/>
       <c r="C199"/>
@@ -13586,7 +13586,7 @@
       <c r="I199" s="6"/>
       <c r="J199" s="6"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A200" s="7"/>
       <c r="B200" s="6"/>
       <c r="C200"/>
@@ -13597,7 +13597,7 @@
       <c r="I200" s="6"/>
       <c r="J200" s="6"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A201" s="7"/>
       <c r="B201" s="6"/>
       <c r="C201"/>
@@ -13608,7 +13608,7 @@
       <c r="I201" s="6"/>
       <c r="J201" s="6"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A202" s="7"/>
       <c r="B202" s="6"/>
       <c r="C202"/>
@@ -13619,7 +13619,7 @@
       <c r="I202" s="6"/>
       <c r="J202" s="6"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A203" s="7"/>
       <c r="B203" s="6"/>
       <c r="C203"/>
@@ -13630,7 +13630,7 @@
       <c r="I203" s="6"/>
       <c r="J203" s="6"/>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A204" s="7"/>
       <c r="B204" s="6"/>
       <c r="C204"/>
@@ -13641,7 +13641,7 @@
       <c r="I204" s="6"/>
       <c r="J204" s="6"/>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A205" s="7"/>
       <c r="B205" s="6"/>
       <c r="C205"/>
@@ -13652,7 +13652,7 @@
       <c r="I205" s="6"/>
       <c r="J205" s="6"/>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A206" s="7"/>
       <c r="B206" s="6"/>
       <c r="C206"/>
@@ -13663,7 +13663,7 @@
       <c r="I206" s="6"/>
       <c r="J206" s="6"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A207" s="7"/>
       <c r="B207" s="6"/>
       <c r="C207"/>
@@ -13674,7 +13674,7 @@
       <c r="I207" s="6"/>
       <c r="J207" s="6"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A208" s="7"/>
       <c r="B208" s="6"/>
       <c r="C208"/>
@@ -13685,7 +13685,7 @@
       <c r="I208" s="6"/>
       <c r="J208" s="6"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A209" s="7"/>
       <c r="B209" s="6"/>
       <c r="C209"/>
@@ -13696,7 +13696,7 @@
       <c r="I209" s="6"/>
       <c r="J209" s="6"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A210" s="7"/>
       <c r="B210" s="6"/>
       <c r="C210"/>
@@ -13707,7 +13707,7 @@
       <c r="I210" s="6"/>
       <c r="J210" s="6"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A211" s="7"/>
       <c r="B211" s="6"/>
       <c r="C211"/>
@@ -13718,7 +13718,7 @@
       <c r="I211" s="6"/>
       <c r="J211" s="6"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A212" s="7"/>
       <c r="B212" s="6"/>
       <c r="C212"/>
@@ -13729,7 +13729,7 @@
       <c r="I212" s="6"/>
       <c r="J212" s="6"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A213" s="7"/>
       <c r="B213" s="6"/>
       <c r="C213"/>
@@ -13740,7 +13740,7 @@
       <c r="I213" s="6"/>
       <c r="J213" s="6"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A214" s="7"/>
       <c r="B214" s="6"/>
       <c r="C214"/>
@@ -13751,7 +13751,7 @@
       <c r="I214" s="6"/>
       <c r="J214" s="6"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A215" s="7"/>
       <c r="B215" s="6"/>
       <c r="C215"/>
@@ -13762,7 +13762,7 @@
       <c r="I215" s="6"/>
       <c r="J215" s="6"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A216" s="7"/>
       <c r="B216" s="6"/>
       <c r="C216"/>
@@ -13773,7 +13773,7 @@
       <c r="I216" s="6"/>
       <c r="J216" s="6"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A217" s="7"/>
       <c r="B217" s="6"/>
       <c r="C217"/>
@@ -13784,7 +13784,7 @@
       <c r="I217" s="6"/>
       <c r="J217" s="6"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A218" s="7"/>
       <c r="B218" s="6"/>
       <c r="C218"/>
@@ -13795,7 +13795,7 @@
       <c r="I218" s="6"/>
       <c r="J218" s="6"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A219" s="7"/>
       <c r="B219" s="6"/>
       <c r="C219"/>
@@ -13806,7 +13806,7 @@
       <c r="I219" s="6"/>
       <c r="J219" s="6"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A220" s="7"/>
       <c r="B220" s="6"/>
       <c r="C220"/>
@@ -13817,7 +13817,7 @@
       <c r="I220" s="6"/>
       <c r="J220" s="6"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A221" s="7"/>
       <c r="B221" s="6"/>
       <c r="C221"/>
@@ -13828,7 +13828,7 @@
       <c r="I221" s="6"/>
       <c r="J221" s="6"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A222" s="7"/>
       <c r="B222" s="6"/>
       <c r="C222"/>
@@ -13839,7 +13839,7 @@
       <c r="I222" s="6"/>
       <c r="J222" s="6"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A223" s="7"/>
       <c r="B223" s="6"/>
       <c r="C223"/>
@@ -13850,7 +13850,7 @@
       <c r="I223" s="6"/>
       <c r="J223" s="6"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A224" s="7"/>
       <c r="B224" s="6"/>
       <c r="C224"/>
@@ -13861,7 +13861,7 @@
       <c r="I224" s="6"/>
       <c r="J224" s="6"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A225" s="7"/>
       <c r="B225" s="6"/>
       <c r="C225"/>
@@ -13872,7 +13872,7 @@
       <c r="I225" s="6"/>
       <c r="J225" s="6"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A226" s="7"/>
       <c r="B226" s="6"/>
       <c r="C226"/>
@@ -13883,7 +13883,7 @@
       <c r="I226" s="6"/>
       <c r="J226" s="6"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A227" s="7"/>
       <c r="B227" s="6"/>
       <c r="C227"/>
@@ -13894,7 +13894,7 @@
       <c r="I227" s="6"/>
       <c r="J227" s="6"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A228" s="7"/>
       <c r="B228" s="6"/>
       <c r="C228"/>
@@ -13905,7 +13905,7 @@
       <c r="I228" s="6"/>
       <c r="J228" s="6"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A229" s="7"/>
       <c r="B229" s="6"/>
       <c r="C229"/>
@@ -13916,7 +13916,7 @@
       <c r="I229" s="6"/>
       <c r="J229" s="6"/>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A230" s="7"/>
       <c r="B230" s="6"/>
       <c r="C230"/>
@@ -13927,7 +13927,7 @@
       <c r="I230" s="6"/>
       <c r="J230" s="6"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A231" s="7"/>
       <c r="B231" s="6"/>
       <c r="C231"/>
@@ -13938,7 +13938,7 @@
       <c r="I231" s="6"/>
       <c r="J231" s="6"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A232" s="7"/>
       <c r="B232" s="6"/>
       <c r="C232"/>
@@ -13949,7 +13949,7 @@
       <c r="I232" s="6"/>
       <c r="J232" s="6"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A233" s="7"/>
       <c r="B233" s="6"/>
       <c r="C233"/>
@@ -13960,7 +13960,7 @@
       <c r="I233" s="6"/>
       <c r="J233" s="6"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A234" s="7"/>
       <c r="B234" s="6"/>
       <c r="C234"/>
@@ -13971,7 +13971,7 @@
       <c r="I234" s="6"/>
       <c r="J234" s="6"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A235" s="7"/>
       <c r="B235" s="6"/>
       <c r="C235"/>
@@ -13982,7 +13982,7 @@
       <c r="I235" s="6"/>
       <c r="J235" s="6"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A236" s="7"/>
       <c r="B236" s="6"/>
       <c r="C236"/>
@@ -13993,7 +13993,7 @@
       <c r="I236" s="6"/>
       <c r="J236" s="6"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A237" s="7"/>
       <c r="B237" s="6"/>
       <c r="C237"/>
@@ -14004,7 +14004,7 @@
       <c r="I237" s="6"/>
       <c r="J237" s="6"/>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A238" s="7"/>
       <c r="B238" s="6"/>
       <c r="C238"/>
@@ -14015,7 +14015,7 @@
       <c r="I238" s="6"/>
       <c r="J238" s="6"/>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A239" s="7"/>
       <c r="B239" s="6"/>
       <c r="C239"/>
@@ -14026,7 +14026,7 @@
       <c r="I239" s="6"/>
       <c r="J239" s="6"/>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A240" s="7"/>
       <c r="B240" s="6"/>
       <c r="C240"/>
@@ -14037,7 +14037,7 @@
       <c r="I240" s="6"/>
       <c r="J240" s="6"/>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A241" s="7"/>
       <c r="B241" s="6"/>
       <c r="C241"/>
@@ -14048,7 +14048,7 @@
       <c r="I241" s="6"/>
       <c r="J241" s="6"/>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A242" s="7"/>
       <c r="B242" s="6"/>
       <c r="C242"/>
@@ -14059,7 +14059,7 @@
       <c r="I242" s="6"/>
       <c r="J242" s="6"/>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A243" s="7"/>
       <c r="B243" s="6"/>
       <c r="C243"/>
@@ -14070,7 +14070,7 @@
       <c r="I243" s="6"/>
       <c r="J243" s="6"/>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A244" s="7"/>
       <c r="B244" s="6"/>
       <c r="C244"/>
@@ -14081,7 +14081,7 @@
       <c r="I244" s="6"/>
       <c r="J244" s="6"/>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A245" s="7"/>
       <c r="B245" s="6"/>
       <c r="C245"/>
@@ -14092,7 +14092,7 @@
       <c r="I245" s="6"/>
       <c r="J245" s="6"/>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A246" s="7"/>
       <c r="B246" s="6"/>
       <c r="C246"/>
@@ -14103,7 +14103,7 @@
       <c r="I246" s="6"/>
       <c r="J246" s="6"/>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A247" s="7"/>
       <c r="B247" s="6"/>
       <c r="C247"/>
@@ -14114,7 +14114,7 @@
       <c r="I247" s="6"/>
       <c r="J247" s="6"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A248" s="7"/>
       <c r="B248" s="6"/>
       <c r="C248"/>
@@ -14125,7 +14125,7 @@
       <c r="I248" s="6"/>
       <c r="J248" s="6"/>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A249" s="7"/>
       <c r="B249" s="6"/>
       <c r="C249"/>
@@ -14136,7 +14136,7 @@
       <c r="I249" s="6"/>
       <c r="J249" s="6"/>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A250" s="7"/>
       <c r="B250" s="6"/>
       <c r="C250"/>
@@ -14147,7 +14147,7 @@
       <c r="I250" s="6"/>
       <c r="J250" s="6"/>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A251" s="7"/>
       <c r="B251" s="6"/>
       <c r="C251"/>
@@ -14158,7 +14158,7 @@
       <c r="I251" s="6"/>
       <c r="J251" s="6"/>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A252" s="7"/>
       <c r="B252" s="6"/>
       <c r="C252"/>
@@ -14169,7 +14169,7 @@
       <c r="I252" s="6"/>
       <c r="J252" s="6"/>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A253" s="7"/>
       <c r="B253" s="6"/>
       <c r="C253"/>
@@ -14180,7 +14180,7 @@
       <c r="I253" s="6"/>
       <c r="J253" s="6"/>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A254" s="7"/>
       <c r="B254" s="6"/>
       <c r="C254"/>
@@ -14191,7 +14191,7 @@
       <c r="I254" s="6"/>
       <c r="J254" s="6"/>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A255" s="7"/>
       <c r="B255" s="6"/>
       <c r="C255"/>
@@ -14202,7 +14202,7 @@
       <c r="I255" s="6"/>
       <c r="J255" s="6"/>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A256" s="7"/>
       <c r="B256" s="6"/>
       <c r="C256"/>
@@ -14213,7 +14213,7 @@
       <c r="I256" s="6"/>
       <c r="J256" s="6"/>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A257" s="7"/>
       <c r="B257" s="6"/>
       <c r="C257"/>
@@ -14224,7 +14224,7 @@
       <c r="I257" s="6"/>
       <c r="J257" s="6"/>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A258" s="7"/>
       <c r="B258" s="6"/>
       <c r="C258"/>
@@ -14235,7 +14235,7 @@
       <c r="I258" s="6"/>
       <c r="J258" s="6"/>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A259" s="7"/>
       <c r="B259" s="6"/>
       <c r="C259"/>
@@ -14246,7 +14246,7 @@
       <c r="I259" s="6"/>
       <c r="J259" s="6"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A260" s="7"/>
       <c r="B260" s="6"/>
       <c r="C260"/>
@@ -14257,7 +14257,7 @@
       <c r="I260" s="6"/>
       <c r="J260" s="6"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A261" s="7"/>
       <c r="B261" s="6"/>
       <c r="C261"/>
@@ -14268,7 +14268,7 @@
       <c r="I261" s="6"/>
       <c r="J261" s="6"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A262" s="7"/>
       <c r="B262" s="6"/>
       <c r="C262"/>
@@ -14279,7 +14279,7 @@
       <c r="I262" s="6"/>
       <c r="J262" s="6"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A263" s="7"/>
       <c r="B263" s="6"/>
       <c r="C263"/>
@@ -14290,7 +14290,7 @@
       <c r="I263" s="6"/>
       <c r="J263" s="6"/>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A264" s="7"/>
       <c r="B264" s="6"/>
       <c r="C264"/>
@@ -14301,7 +14301,7 @@
       <c r="I264" s="6"/>
       <c r="J264" s="6"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A265" s="7"/>
       <c r="B265" s="6"/>
       <c r="C265"/>
@@ -14312,7 +14312,7 @@
       <c r="I265" s="6"/>
       <c r="J265" s="6"/>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A266" s="7"/>
       <c r="B266" s="6"/>
       <c r="C266"/>
@@ -14323,352 +14323,352 @@
       <c r="I266" s="6"/>
       <c r="J266" s="6"/>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C267"/>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C268"/>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C269"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C270"/>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C271"/>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C272"/>
     </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C273"/>
     </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C274"/>
     </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C275"/>
     </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C276"/>
     </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C277"/>
     </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C278"/>
     </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C279"/>
     </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C280"/>
     </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C281"/>
     </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C282"/>
     </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C283"/>
     </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C284"/>
     </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C285"/>
     </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C286"/>
     </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C287"/>
     </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C288"/>
     </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C289"/>
     </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C290"/>
     </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C291"/>
     </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C292"/>
     </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C293"/>
     </row>
-    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C294"/>
     </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C295"/>
     </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C296"/>
     </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C297"/>
     </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C298"/>
     </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C299"/>
     </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C300"/>
     </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C301"/>
     </row>
-    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C302"/>
     </row>
-    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C303"/>
     </row>
-    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C304"/>
     </row>
-    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C305"/>
     </row>
-    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C306"/>
     </row>
-    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C307"/>
     </row>
-    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C308"/>
     </row>
-    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C309"/>
     </row>
-    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C310"/>
     </row>
-    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C311"/>
     </row>
-    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C312"/>
     </row>
-    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C313"/>
     </row>
-    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C314"/>
     </row>
-    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C315"/>
     </row>
-    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C316"/>
     </row>
-    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C317"/>
     </row>
-    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C318"/>
     </row>
-    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C319"/>
     </row>
-    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C320"/>
     </row>
-    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C321"/>
     </row>
-    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C322"/>
     </row>
-    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C323"/>
     </row>
-    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C324"/>
     </row>
-    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C325"/>
     </row>
-    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C326"/>
     </row>
-    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C327"/>
     </row>
-    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C328"/>
     </row>
-    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C329"/>
     </row>
-    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C330"/>
     </row>
-    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C331"/>
     </row>
-    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C332"/>
     </row>
-    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C333"/>
     </row>
-    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C334"/>
     </row>
-    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C335"/>
     </row>
-    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C336"/>
     </row>
-    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C337"/>
     </row>
-    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C338"/>
     </row>
-    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C339"/>
     </row>
-    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C340"/>
     </row>
-    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C341"/>
     </row>
-    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C342"/>
     </row>
-    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C343"/>
     </row>
-    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C344"/>
     </row>
-    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C345"/>
     </row>
-    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C346"/>
     </row>
-    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C347"/>
     </row>
-    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C348"/>
     </row>
-    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C349"/>
     </row>
-    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C350"/>
     </row>
-    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C351"/>
     </row>
-    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C352"/>
     </row>
-    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C353"/>
     </row>
-    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C354"/>
     </row>
-    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C355"/>
     </row>
-    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C356"/>
     </row>
-    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C357"/>
     </row>
-    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C358"/>
     </row>
-    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C359"/>
     </row>
-    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C360"/>
     </row>
-    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C361"/>
     </row>
-    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C362"/>
     </row>
-    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C363"/>
     </row>
-    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C364"/>
     </row>
-    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C365"/>
     </row>
-    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C366"/>
     </row>
-    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C367"/>
     </row>
-    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C368"/>
     </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C369"/>
     </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C370"/>
     </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C371"/>
     </row>
-    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C372"/>
     </row>
-    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C373"/>
     </row>
-    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C374"/>
     </row>
-    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C375"/>
     </row>
-    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C376"/>
     </row>
-    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C377"/>
     </row>
-    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C378"/>
     </row>
-    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C379"/>
     </row>
-    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C380"/>
     </row>
-    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C381"/>
     </row>
-    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C382"/>
     </row>
   </sheetData>
@@ -14691,12 +14691,12 @@
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="40" t="s">
         <v>22</v>
       </c>
@@ -14722,7 +14722,7 @@
         <v>12</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>16</v>
@@ -14797,12 +14797,12 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="40" t="s">
         <v>22</v>
       </c>
@@ -14828,7 +14828,7 @@
         <v>12</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="J1" s="43" t="s">
         <v>16</v>
@@ -14860,7 +14860,7 @@
       <c r="S1" s="47"/>
       <c r="T1" s="47"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="Q2" s="48"/>
       <c r="R2" s="48"/>
       <c r="S2" s="48"/>
@@ -14881,13 +14881,13 @@
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="64.85546875" customWidth="1"/>
+    <col min="3" max="3" width="64.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -14901,7 +14901,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -14912,7 +14912,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14923,7 +14923,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14934,7 +14934,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14948,7 +14948,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14962,7 +14962,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -14976,7 +14976,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -14990,7 +14990,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15004,7 +15004,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15032,7 +15032,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -15046,7 +15046,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -15060,7 +15060,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="24">
         <v>13</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="24">
         <v>14</v>
       </c>
@@ -15088,7 +15088,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="24">
         <v>15</v>
       </c>
@@ -15102,7 +15102,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -15116,7 +15116,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -15127,7 +15127,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -15138,7 +15138,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -15149,7 +15149,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -15160,7 +15160,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -15171,7 +15171,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -15182,7 +15182,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -15193,7 +15193,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -15204,7 +15204,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -15215,7 +15215,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -15229,7 +15229,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -15243,7 +15243,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -15257,7 +15257,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -15271,7 +15271,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -15285,7 +15285,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -15299,7 +15299,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -15313,7 +15313,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -15327,7 +15327,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -15341,7 +15341,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -15355,7 +15355,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -15369,7 +15369,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="24">
         <v>37</v>
       </c>
@@ -15397,15 +15397,15 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="11"/>
-    <col min="3" max="3" width="17.85546875" style="11" customWidth="1"/>
-    <col min="4" max="1024" width="11.42578125" style="11"/>
+    <col min="1" max="1" width="17.86328125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" style="11"/>
+    <col min="3" max="3" width="17.86328125" style="11" customWidth="1"/>
+    <col min="4" max="1024" width="11.3984375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>87</v>
       </c>
@@ -15416,7 +15416,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>90</v>
       </c>
@@ -15427,7 +15427,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>92</v>
       </c>
@@ -15438,7 +15438,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>94</v>
       </c>
@@ -15451,7 +15451,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="11" t="s">
         <v>96</v>
       </c>
@@ -15464,7 +15464,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>99</v>
       </c>
@@ -15475,7 +15475,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
         <v>100</v>
       </c>
@@ -15486,7 +15486,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
         <v>101</v>
       </c>
@@ -15497,7 +15497,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
         <v>102</v>
       </c>
@@ -15508,7 +15508,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>103</v>
       </c>
@@ -15519,7 +15519,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
         <v>105</v>
       </c>
@@ -15530,7 +15530,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>107</v>
       </c>
@@ -15541,7 +15541,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
         <v>108</v>
       </c>
@@ -15552,7 +15552,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="11" t="s">
         <v>109</v>
       </c>
@@ -15563,7 +15563,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
         <v>111</v>
       </c>
@@ -15574,7 +15574,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="11" t="s">
         <v>112</v>
       </c>
@@ -15585,7 +15585,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
         <v>113</v>
       </c>
@@ -15596,7 +15596,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="11" t="s">
         <v>114</v>
       </c>
@@ -15607,7 +15607,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="11" t="s">
         <v>115</v>
       </c>
@@ -15618,7 +15618,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="11" t="s">
         <v>116</v>
       </c>
@@ -15629,7 +15629,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="11" t="s">
         <v>117</v>
       </c>
@@ -15640,7 +15640,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="11" t="s">
         <v>118</v>
       </c>
@@ -15651,7 +15651,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="11" t="s">
         <v>119</v>
       </c>
@@ -15662,7 +15662,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="11" t="s">
         <v>120</v>
       </c>
@@ -15673,7 +15673,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="11" t="s">
         <v>122</v>
       </c>
@@ -15684,7 +15684,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="11" t="s">
         <v>123</v>
       </c>
@@ -15695,7 +15695,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="11" t="s">
         <v>125</v>
       </c>
@@ -15706,7 +15706,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="11" t="s">
         <v>127</v>
       </c>
@@ -15717,7 +15717,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="11" t="s">
         <v>128</v>
       </c>
@@ -15728,7 +15728,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="11" t="s">
         <v>129</v>
       </c>
@@ -15739,7 +15739,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="11" t="s">
         <v>43</v>
       </c>
@@ -15750,7 +15750,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="11" t="s">
         <v>42</v>
       </c>
@@ -15761,7 +15761,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="11" t="s">
         <v>47</v>
       </c>
@@ -15772,7 +15772,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="11" t="s">
         <v>41</v>
       </c>
@@ -15783,7 +15783,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="11" t="s">
         <v>37</v>
       </c>
@@ -15794,7 +15794,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="11" t="s">
         <v>31</v>
       </c>
@@ -15805,7 +15805,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="11" t="s">
         <v>46</v>
       </c>
@@ -15816,7 +15816,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="11" t="s">
         <v>35</v>
       </c>
@@ -15827,7 +15827,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="11" t="s">
         <v>34</v>
       </c>
@@ -15838,7 +15838,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="11" t="s">
         <v>131</v>
       </c>
@@ -15849,7 +15849,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="11" t="s">
         <v>50</v>
       </c>
@@ -15860,7 +15860,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="11" t="s">
         <v>38</v>
       </c>
@@ -15871,7 +15871,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="11" t="s">
         <v>36</v>
       </c>
@@ -15882,7 +15882,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="11" t="s">
         <v>51</v>
       </c>
@@ -15893,7 +15893,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="11" t="s">
         <v>133</v>
       </c>
@@ -15904,7 +15904,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="11" t="s">
         <v>45</v>
       </c>
@@ -15915,7 +15915,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="11" t="s">
         <v>134</v>
       </c>
@@ -15926,7 +15926,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="11" t="s">
         <v>136</v>
       </c>
@@ -15937,7 +15937,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="11" t="s">
         <v>137</v>
       </c>
@@ -15948,7 +15948,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="11" t="s">
         <v>139</v>
       </c>
@@ -15959,7 +15959,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="11" t="s">
         <v>140</v>
       </c>
@@ -15970,7 +15970,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="11" t="s">
         <v>141</v>
       </c>
@@ -15981,7 +15981,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="11" t="s">
         <v>142</v>
       </c>
@@ -15992,7 +15992,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="11" t="s">
         <v>143</v>
       </c>
@@ -16003,7 +16003,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="11" t="s">
         <v>144</v>
       </c>
@@ -16014,7 +16014,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="11" t="s">
         <v>145</v>
       </c>
@@ -16025,7 +16025,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="11" t="s">
         <v>146</v>
       </c>
@@ -16036,7 +16036,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="11" t="s">
         <v>147</v>
       </c>
@@ -16047,7 +16047,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="11" t="s">
         <v>148</v>
       </c>
@@ -16058,7 +16058,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="11" t="s">
         <v>149</v>
       </c>
@@ -16069,7 +16069,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="11" t="s">
         <v>151</v>
       </c>
@@ -16080,7 +16080,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62" s="11" t="s">
         <v>152</v>
       </c>
@@ -16091,7 +16091,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63" s="11" t="s">
         <v>153</v>
       </c>
@@ -16102,7 +16102,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64" s="11" t="s">
         <v>154</v>
       </c>
@@ -16113,7 +16113,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="11" t="s">
         <v>155</v>
       </c>
@@ -16124,7 +16124,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="11" t="s">
         <v>156</v>
       </c>
@@ -16135,7 +16135,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="14" t="s">
         <v>157</v>
       </c>
@@ -16146,7 +16146,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="11" t="s">
         <v>158</v>
       </c>
@@ -16157,7 +16157,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="11" t="s">
         <v>159</v>
       </c>
@@ -16168,7 +16168,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="11" t="s">
         <v>160</v>
       </c>
@@ -16179,7 +16179,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="11" t="s">
         <v>161</v>
       </c>
@@ -16190,7 +16190,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="11" t="s">
         <v>162</v>
       </c>
@@ -16201,7 +16201,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="11" t="s">
         <v>163</v>
       </c>
@@ -16212,7 +16212,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="11" t="s">
         <v>164</v>
       </c>
@@ -16223,7 +16223,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="11" t="s">
         <v>165</v>
       </c>
@@ -16234,7 +16234,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="11" t="s">
         <v>167</v>
       </c>
@@ -16245,7 +16245,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="11" t="s">
         <v>168</v>
       </c>
@@ -16256,7 +16256,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="11" t="s">
         <v>169</v>
       </c>
@@ -16267,7 +16267,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="11" t="s">
         <v>170</v>
       </c>
@@ -16278,7 +16278,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="11" t="s">
         <v>171</v>
       </c>
@@ -16289,7 +16289,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="11" t="s">
         <v>173</v>
       </c>
@@ -16300,7 +16300,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="11" t="s">
         <v>175</v>
       </c>
@@ -16311,7 +16311,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="11" t="s">
         <v>176</v>
       </c>
@@ -16322,7 +16322,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="11" t="s">
         <v>177</v>
       </c>
@@ -16333,7 +16333,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="11" t="s">
         <v>178</v>
       </c>
@@ -16344,7 +16344,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="11" t="s">
         <v>179</v>
       </c>
@@ -16355,7 +16355,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="11" t="s">
         <v>180</v>
       </c>
@@ -16366,7 +16366,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="11" t="s">
         <v>181</v>
       </c>
@@ -16377,7 +16377,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="11" t="s">
         <v>183</v>
       </c>
@@ -16388,7 +16388,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="11" t="s">
         <v>185</v>
       </c>
@@ -16399,7 +16399,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="11" t="s">
         <v>187</v>
       </c>
@@ -16410,7 +16410,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="11" t="s">
         <v>188</v>
       </c>
@@ -16421,7 +16421,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="11" t="s">
         <v>189</v>
       </c>
@@ -16432,7 +16432,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="11" t="s">
         <v>190</v>
       </c>
@@ -16443,7 +16443,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="11" t="s">
         <v>191</v>
       </c>
@@ -16454,7 +16454,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" s="11" t="s">
         <v>192</v>
       </c>
@@ -16465,7 +16465,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="11" t="s">
         <v>193</v>
       </c>
@@ -16476,7 +16476,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="11" t="s">
         <v>194</v>
       </c>
@@ -16487,7 +16487,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A99" s="11" t="s">
         <v>195</v>
       </c>
@@ -16498,7 +16498,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="11" t="s">
         <v>196</v>
       </c>
@@ -16509,7 +16509,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A101" s="11" t="s">
         <v>197</v>
       </c>
@@ -16520,7 +16520,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="11" t="s">
         <v>198</v>
       </c>
@@ -16531,7 +16531,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="11" t="s">
         <v>199</v>
       </c>
@@ -16542,7 +16542,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="11" t="s">
         <v>200</v>
       </c>
@@ -16553,7 +16553,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="11" t="s">
         <v>201</v>
       </c>
@@ -16564,7 +16564,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A106" s="11" t="s">
         <v>202</v>
       </c>
@@ -16575,7 +16575,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="11" t="s">
         <v>203</v>
       </c>
@@ -16586,7 +16586,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A108" s="11" t="s">
         <v>204</v>
       </c>
@@ -16597,7 +16597,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A109" s="11" t="s">
         <v>205</v>
       </c>
@@ -16608,7 +16608,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A110" s="11" t="s">
         <v>206</v>
       </c>
@@ -16619,7 +16619,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A111" s="11" t="s">
         <v>207</v>
       </c>
@@ -16630,7 +16630,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A112" s="11" t="s">
         <v>209</v>
       </c>
@@ -16641,7 +16641,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A113" s="11" t="s">
         <v>211</v>
       </c>
@@ -16652,7 +16652,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A114" s="11" t="s">
         <v>212</v>
       </c>
@@ -16663,7 +16663,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A115" s="11" t="s">
         <v>214</v>
       </c>
@@ -16674,7 +16674,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A116" s="11" t="s">
         <v>215</v>
       </c>
@@ -16685,7 +16685,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A117" s="11" t="s">
         <v>217</v>
       </c>
@@ -16696,7 +16696,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A118" s="11" t="s">
         <v>218</v>
       </c>
@@ -16707,7 +16707,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A119" s="11" t="s">
         <v>220</v>
       </c>
@@ -16718,7 +16718,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A120" s="11" t="s">
         <v>222</v>
       </c>
@@ -16729,7 +16729,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A121" s="11" t="s">
         <v>224</v>
       </c>
@@ -16740,7 +16740,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A122" s="11" t="s">
         <v>226</v>
       </c>
@@ -16751,7 +16751,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A123" s="11" t="s">
         <v>228</v>
       </c>
@@ -16762,7 +16762,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A124" s="11" t="s">
         <v>229</v>
       </c>
@@ -16773,7 +16773,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A125" s="11" t="s">
         <v>231</v>
       </c>
@@ -16784,7 +16784,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A126" s="11" t="s">
         <v>233</v>
       </c>
@@ -16795,7 +16795,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A127" s="11" t="s">
         <v>234</v>
       </c>
@@ -16806,7 +16806,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A128" s="11" t="s">
         <v>235</v>
       </c>
@@ -16817,7 +16817,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A129" s="11" t="s">
         <v>236</v>
       </c>
@@ -16828,7 +16828,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A130" s="11" t="s">
         <v>237</v>
       </c>
@@ -16839,7 +16839,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A131" s="11" t="s">
         <v>239</v>
       </c>
@@ -16847,7 +16847,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A132" s="11" t="s">
         <v>241</v>
       </c>
@@ -16858,7 +16858,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A133" s="11" t="s">
         <v>242</v>
       </c>
@@ -16869,7 +16869,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A134" s="11" t="s">
         <v>243</v>
       </c>
@@ -16877,7 +16877,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A135" s="11" t="s">
         <v>244</v>
       </c>
@@ -16888,7 +16888,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A136" s="11" t="s">
         <v>245</v>
       </c>
@@ -16896,7 +16896,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A137" s="11" t="s">
         <v>246</v>
       </c>
@@ -16907,7 +16907,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A138" s="11" t="s">
         <v>247</v>
       </c>
@@ -16918,7 +16918,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A139" s="11" t="s">
         <v>249</v>
       </c>
@@ -16929,7 +16929,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A140" s="11" t="s">
         <v>251</v>
       </c>
@@ -16940,7 +16940,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A141" s="11" t="s">
         <v>253</v>
       </c>
@@ -16951,7 +16951,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A142" s="11" t="s">
         <v>254</v>
       </c>
@@ -16962,7 +16962,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A143" s="11" t="s">
         <v>255</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A144" s="11" t="s">
         <v>256</v>
       </c>
@@ -16984,7 +16984,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A145" s="11" t="s">
         <v>257</v>
       </c>
@@ -17010,9 +17010,9 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>259</v>
       </c>
@@ -17026,7 +17026,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>230</v>
       </c>
@@ -17040,7 +17040,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>240</v>
       </c>
@@ -17054,7 +17054,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -17068,7 +17068,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>135</v>
       </c>
@@ -17082,7 +17082,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>126</v>
       </c>
@@ -17096,7 +17096,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>216</v>
       </c>
@@ -17110,7 +17110,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>210</v>
       </c>
@@ -17124,7 +17124,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>238</v>
       </c>
@@ -17138,7 +17138,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>232</v>
       </c>
@@ -17152,7 +17152,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -17166,7 +17166,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -17180,7 +17180,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>121</v>
       </c>
@@ -17194,7 +17194,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>227</v>
       </c>
@@ -17208,7 +17208,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -17222,7 +17222,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -17236,7 +17236,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>174</v>
       </c>
@@ -17250,7 +17250,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>150</v>
       </c>
@@ -17264,7 +17264,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>138</v>
       </c>
@@ -17278,7 +17278,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -17292,7 +17292,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>132</v>
       </c>
@@ -17306,7 +17306,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>186</v>
       </c>
@@ -17320,7 +17320,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>225</v>
       </c>
@@ -17334,7 +17334,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>248</v>
       </c>
@@ -17348,7 +17348,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>172</v>
       </c>
@@ -17362,7 +17362,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -17376,7 +17376,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>223</v>
       </c>
@@ -17390,7 +17390,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -17404,7 +17404,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>166</v>
       </c>
@@ -17418,7 +17418,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>258</v>
       </c>
@@ -17432,7 +17432,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>104</v>
       </c>
@@ -17446,7 +17446,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>250</v>
       </c>
@@ -17460,7 +17460,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -17474,7 +17474,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>182</v>
       </c>
@@ -17488,7 +17488,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>130</v>
       </c>
@@ -17502,7 +17502,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>219</v>
       </c>
@@ -17516,7 +17516,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>252</v>
       </c>
@@ -17530,7 +17530,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>124</v>
       </c>
@@ -17544,7 +17544,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>221</v>
       </c>
@@ -17558,7 +17558,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>339</v>
       </c>
@@ -17579,27 +17579,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ADE5A2812409A74E9D63F27EF88903B8" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7bd325d4d8d3d0cfa3a820f8985111cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" xmlns:ns3="362c980f-4e38-4cca-bd06-5104ee5993c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a46f65cc92525120babafc4c69c5d04c" ns2:_="" ns3:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -17776,32 +17755,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF31DC95-3BC0-4646-A836-AD68D3DF06B1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA81498D-C27B-40B3-9D2D-5BD73BC7258A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{988781D5-C818-4671-8C94-279897F17A6E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17818,4 +17793,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA81498D-C27B-40B3-9D2D-5BD73BC7258A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF31DC95-3BC0-4646-A836-AD68D3DF06B1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>